--- a/temp_ + Synthetic Anchorage (idle).xlsx
+++ b/temp_ + Synthetic Anchorage (idle).xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Wed Jan 29 13:47:52 2025</t>
+    <t>Sun Feb  9 12:12:30 2025</t>
   </si>
   <si>
-    <t>Wed Jan 29 20:02:47 2025</t>
+    <t>Sun Feb  9 18:22:10 2025</t>
   </si>
 </sst>
 </file>
@@ -359,19 +359,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>470.9581445944717</v>
+        <v>461.344869024056</v>
       </c>
       <c r="B1">
-        <v>1202.57098559243</v>
+        <v>1159.053745063511</v>
       </c>
       <c r="C1">
-        <v>140.0486486486487</v>
+        <v>196.4759493670886</v>
       </c>
       <c r="D1">
-        <v>0.6157829273996388</v>
+        <v>0.6394269182041671</v>
       </c>
       <c r="E1">
-        <v>0.04076999413766046</v>
+        <v>0.03356993177091747</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/temp_ + Synthetic Anchorage (idle).xlsx
+++ b/temp_ + Synthetic Anchorage (idle).xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Sun Feb  9 12:12:30 2025</t>
-  </si>
-  <si>
-    <t>Sun Feb  9 18:22:10 2025</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -359,27 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>461.344869024056</v>
+        <v>546.3437441090463</v>
       </c>
       <c r="B1">
-        <v>1159.053745063511</v>
+        <v>1191.798816452482</v>
       </c>
       <c r="C1">
-        <v>196.4759493670886</v>
+        <v>180.6116751269035</v>
       </c>
       <c r="D1">
-        <v>0.6394269182041671</v>
+        <v>0.6540344345403829</v>
       </c>
       <c r="E1">
-        <v>0.03356993177091747</v>
+        <v>0.03828644330357805</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>609.7538529520234</v>
+      </c>
+      <c r="B2">
+        <v>1311.684972892567</v>
+      </c>
+      <c r="C2">
+        <v>123.9772727272727</v>
+      </c>
+      <c r="D2">
+        <v>0.6400757846689797</v>
+      </c>
+      <c r="E2">
+        <v>0.04766252158239412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>528.1148318959965</v>
+      </c>
+      <c r="B3">
+        <v>1193.89495696175</v>
+      </c>
+      <c r="C3">
+        <v>101.2670157068063</v>
+      </c>
+      <c r="D3">
+        <v>0.617008686649908</v>
+      </c>
+      <c r="E3">
+        <v>0.05150546845058965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>620.8380347529827</v>
+      </c>
+      <c r="B4">
+        <v>1296.360885857124</v>
+      </c>
+      <c r="C4">
+        <v>114.2695417789757</v>
+      </c>
+      <c r="D4">
+        <v>0.6131741189872669</v>
+      </c>
+      <c r="E4">
+        <v>0.04900589536562395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>713.7849754280737</v>
+      </c>
+      <c r="B5">
+        <v>1254.778052931583</v>
+      </c>
+      <c r="C5">
+        <v>359.8177215189874</v>
+      </c>
+      <c r="D5">
+        <v>0.6732173896912949</v>
+      </c>
+      <c r="E5">
+        <v>0.03449302788723013</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Synthetic Anchorage (idle).xlsx
+++ b/temp_ + Synthetic Anchorage (idle).xlsx
@@ -348,87 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>546.3437441090463</v>
+        <v>619.3119198592663</v>
       </c>
       <c r="B1">
-        <v>1191.798816452482</v>
+        <v>1353.078284007013</v>
       </c>
       <c r="C1">
-        <v>180.6116751269035</v>
+        <v>82.43641618497109</v>
       </c>
       <c r="D1">
-        <v>0.6540344345403829</v>
+        <v>0.6103678979518047</v>
       </c>
       <c r="E1">
-        <v>0.03828644330357805</v>
+        <v>0.05474469690849319</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>609.7538529520234</v>
+        <v>635.6303734345863</v>
       </c>
       <c r="B2">
-        <v>1311.684972892567</v>
+        <v>1238.026706911562</v>
       </c>
       <c r="C2">
-        <v>123.9772727272727</v>
+        <v>188.053050397878</v>
       </c>
       <c r="D2">
-        <v>0.6400757846689797</v>
+        <v>0.6418372214538696</v>
       </c>
       <c r="E2">
-        <v>0.04766252158239412</v>
+        <v>0.04230939866362051</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>528.1148318959965</v>
+        <v>517.1510356192998</v>
       </c>
       <c r="B3">
-        <v>1193.89495696175</v>
+        <v>1141.360157066626</v>
       </c>
       <c r="C3">
-        <v>101.2670157068063</v>
+        <v>91.23421052631579</v>
       </c>
       <c r="D3">
-        <v>0.617008686649908</v>
+        <v>0.6381082721889059</v>
       </c>
       <c r="E3">
-        <v>0.05150546845058965</v>
+        <v>0.05418945270213314</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>620.8380347529827</v>
+        <v>619.5969171572226</v>
       </c>
       <c r="B4">
-        <v>1296.360885857124</v>
+        <v>1255.708419457962</v>
       </c>
       <c r="C4">
-        <v>114.2695417789757</v>
+        <v>144.9329758713137</v>
       </c>
       <c r="D4">
-        <v>0.6131741189872669</v>
+        <v>0.6381757748936259</v>
       </c>
       <c r="E4">
-        <v>0.04900589536562395</v>
+        <v>0.04036477506011947</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>713.7849754280737</v>
+        <v>491.3897794135507</v>
       </c>
       <c r="B5">
-        <v>1254.778052931583</v>
+        <v>1041.060338202528</v>
       </c>
       <c r="C5">
-        <v>359.8177215189874</v>
+        <v>236.6374695863747</v>
       </c>
       <c r="D5">
-        <v>0.6732173896912949</v>
+        <v>0.6586319149318938</v>
       </c>
       <c r="E5">
-        <v>0.03449302788723013</v>
+        <v>0.03220483501253037</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Synthetic Anchorage (idle).xlsx
+++ b/temp_ + Synthetic Anchorage (idle).xlsx
@@ -348,87 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>619.3119198592663</v>
+        <v>537.6224685923257</v>
       </c>
       <c r="B1">
-        <v>1353.078284007013</v>
+        <v>1304.474842247255</v>
       </c>
       <c r="C1">
-        <v>82.43641618497109</v>
+        <v>205.5605263157895</v>
       </c>
       <c r="D1">
-        <v>0.6103678979518047</v>
+        <v>0.6223807222716706</v>
       </c>
       <c r="E1">
-        <v>0.05474469690849319</v>
+        <v>0.03345593236064073</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>635.6303734345863</v>
+        <v>577.5337665833383</v>
       </c>
       <c r="B2">
-        <v>1238.026706911562</v>
+        <v>1336.368568464763</v>
       </c>
       <c r="C2">
-        <v>188.053050397878</v>
+        <v>221.7771739130435</v>
       </c>
       <c r="D2">
-        <v>0.6418372214538696</v>
+        <v>0.622498909732863</v>
       </c>
       <c r="E2">
-        <v>0.04230939866362051</v>
+        <v>0.03781471798996554</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>517.1510356192998</v>
+        <v>579.3721231027423</v>
       </c>
       <c r="B3">
-        <v>1141.360157066626</v>
+        <v>1357.224700274597</v>
       </c>
       <c r="C3">
-        <v>91.23421052631579</v>
+        <v>161.6518518518519</v>
       </c>
       <c r="D3">
-        <v>0.6381082721889059</v>
+        <v>0.6091875098682863</v>
       </c>
       <c r="E3">
-        <v>0.05418945270213314</v>
+        <v>0.04400906462721399</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>619.5969171572226</v>
+        <v>649.7204211762437</v>
       </c>
       <c r="B4">
-        <v>1255.708419457962</v>
+        <v>1443.519307543851</v>
       </c>
       <c r="C4">
-        <v>144.9329758713137</v>
+        <v>205.5757575757576</v>
       </c>
       <c r="D4">
-        <v>0.6381757748936259</v>
+        <v>0.6402838716801239</v>
       </c>
       <c r="E4">
-        <v>0.04036477506011947</v>
+        <v>0.03594420116174556</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>491.3897794135507</v>
+        <v>515.415976410467</v>
       </c>
       <c r="B5">
-        <v>1041.060338202528</v>
+        <v>1253.423277169712</v>
       </c>
       <c r="C5">
-        <v>236.6374695863747</v>
+        <v>219.9654320987654</v>
       </c>
       <c r="D5">
-        <v>0.6586319149318938</v>
+        <v>0.6352498207923374</v>
       </c>
       <c r="E5">
-        <v>0.03220483501253037</v>
+        <v>0.03655297869093022</v>
       </c>
     </row>
   </sheetData>
